--- a/maya script/JAC/test.xlsx
+++ b/maya script/JAC/test.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880EE9B4-D228-45B4-B6B7-A3D2A6C5522B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>19CU0101</t>
     <phoneticPr fontId="1"/>
@@ -143,280 +144,1082 @@
     <t>19CU0140</t>
   </si>
   <si>
-    <t>名前01</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前02</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前03</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前04</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前05</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前06</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前07</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前08</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前09</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前10</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前11</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前12</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前13</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前14</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前15</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前16</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前17</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前18</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前19</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前20</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前21</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前22</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前23</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前24</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前25</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前26</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前27</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前28</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前29</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前30</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前31</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前32</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前33</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前34</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前35</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前36</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前37</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前38</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前39</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前40</t>
+    <t>19CU0201</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0201</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0202</t>
+  </si>
+  <si>
+    <t>名前0202</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0203</t>
+  </si>
+  <si>
+    <t>名前0203</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0204</t>
+  </si>
+  <si>
+    <t>名前0204</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0205</t>
+  </si>
+  <si>
+    <t>名前0205</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0206</t>
+  </si>
+  <si>
+    <t>名前0206</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0207</t>
+  </si>
+  <si>
+    <t>名前0207</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0208</t>
+  </si>
+  <si>
+    <t>名前0208</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0209</t>
+  </si>
+  <si>
+    <t>名前0209</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0210</t>
+  </si>
+  <si>
+    <t>名前0210</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0211</t>
+  </si>
+  <si>
+    <t>名前0211</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0212</t>
+  </si>
+  <si>
+    <t>名前0212</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0213</t>
+  </si>
+  <si>
+    <t>名前0213</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0214</t>
+  </si>
+  <si>
+    <t>名前0214</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0215</t>
+  </si>
+  <si>
+    <t>名前0215</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0216</t>
+  </si>
+  <si>
+    <t>名前0216</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0217</t>
+  </si>
+  <si>
+    <t>名前0217</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0218</t>
+  </si>
+  <si>
+    <t>名前0218</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0219</t>
+  </si>
+  <si>
+    <t>名前0219</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0220</t>
+  </si>
+  <si>
+    <t>名前0220</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0221</t>
+  </si>
+  <si>
+    <t>名前0221</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0222</t>
+  </si>
+  <si>
+    <t>名前0222</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0223</t>
+  </si>
+  <si>
+    <t>名前0223</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0224</t>
+  </si>
+  <si>
+    <t>名前0224</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0225</t>
+  </si>
+  <si>
+    <t>名前0225</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0226</t>
+  </si>
+  <si>
+    <t>名前0226</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0227</t>
+  </si>
+  <si>
+    <t>名前0227</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0228</t>
+  </si>
+  <si>
+    <t>名前0228</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0229</t>
+  </si>
+  <si>
+    <t>名前0229</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0230</t>
+  </si>
+  <si>
+    <t>名前0230</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0231</t>
+  </si>
+  <si>
+    <t>名前0231</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0232</t>
+  </si>
+  <si>
+    <t>名前0232</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0233</t>
+  </si>
+  <si>
+    <t>名前0233</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0234</t>
+  </si>
+  <si>
+    <t>名前0234</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0235</t>
+  </si>
+  <si>
+    <t>名前0235</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0236</t>
+  </si>
+  <si>
+    <t>名前0236</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0237</t>
+  </si>
+  <si>
+    <t>名前0237</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0238</t>
+  </si>
+  <si>
+    <t>名前0238</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0239</t>
+  </si>
+  <si>
+    <t>名前0239</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0240</t>
+  </si>
+  <si>
+    <t>名前0240</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0101</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0102</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0103</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0104</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0105</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0106</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0107</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0108</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0109</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0110</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0111</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0112</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0113</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0114</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0115</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0116</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0117</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0118</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0119</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0120</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0121</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0122</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0123</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0124</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0125</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0126</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0127</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0128</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0129</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0130</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0131</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0132</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0133</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0134</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0135</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0136</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0137</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0138</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0139</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0140</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0301</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前0301</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0302</t>
+  </si>
+  <si>
+    <t>名前0302</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0303</t>
+  </si>
+  <si>
+    <t>名前0303</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0304</t>
+  </si>
+  <si>
+    <t>名前0304</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0305</t>
+  </si>
+  <si>
+    <t>名前0305</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0306</t>
+  </si>
+  <si>
+    <t>名前0306</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0307</t>
+  </si>
+  <si>
+    <t>名前0307</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0308</t>
+  </si>
+  <si>
+    <t>名前0308</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0309</t>
+  </si>
+  <si>
+    <t>名前0309</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0310</t>
+  </si>
+  <si>
+    <t>名前0310</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0311</t>
+  </si>
+  <si>
+    <t>名前0311</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0312</t>
+  </si>
+  <si>
+    <t>名前0312</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0313</t>
+  </si>
+  <si>
+    <t>名前0313</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0314</t>
+  </si>
+  <si>
+    <t>名前0314</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0315</t>
+  </si>
+  <si>
+    <t>名前0315</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0316</t>
+  </si>
+  <si>
+    <t>名前0316</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0317</t>
+  </si>
+  <si>
+    <t>名前0317</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0318</t>
+  </si>
+  <si>
+    <t>名前0318</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0319</t>
+  </si>
+  <si>
+    <t>名前0319</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0320</t>
+  </si>
+  <si>
+    <t>名前0320</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0321</t>
+  </si>
+  <si>
+    <t>名前0321</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0322</t>
+  </si>
+  <si>
+    <t>名前0322</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0323</t>
+  </si>
+  <si>
+    <t>名前0323</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0324</t>
+  </si>
+  <si>
+    <t>名前0324</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0325</t>
+  </si>
+  <si>
+    <t>名前0325</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0326</t>
+  </si>
+  <si>
+    <t>名前0326</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0327</t>
+  </si>
+  <si>
+    <t>名前0327</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0328</t>
+  </si>
+  <si>
+    <t>名前0328</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0329</t>
+  </si>
+  <si>
+    <t>名前0329</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0330</t>
+  </si>
+  <si>
+    <t>名前0330</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0331</t>
+  </si>
+  <si>
+    <t>名前0331</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0332</t>
+  </si>
+  <si>
+    <t>名前0332</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0333</t>
+  </si>
+  <si>
+    <t>名前0333</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0334</t>
+  </si>
+  <si>
+    <t>名前0334</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0335</t>
+  </si>
+  <si>
+    <t>名前0335</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0336</t>
+  </si>
+  <si>
+    <t>名前0336</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0337</t>
+  </si>
+  <si>
+    <t>名前0337</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0338</t>
+  </si>
+  <si>
+    <t>名前0338</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0339</t>
+  </si>
+  <si>
+    <t>名前0339</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0340</t>
+  </si>
+  <si>
+    <t>名前0340</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
     </rPh>
@@ -426,7 +1229,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -744,11 +1547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -761,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -769,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -777,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -785,7 +1588,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -793,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -801,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -809,7 +1612,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -817,7 +1620,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -825,7 +1628,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -833,7 +1636,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -841,7 +1644,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -849,7 +1652,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -857,7 +1660,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -865,7 +1668,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -873,7 +1676,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -881,7 +1684,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -889,7 +1692,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -897,7 +1700,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -905,7 +1708,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -913,7 +1716,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -921,7 +1724,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -929,7 +1732,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -937,7 +1740,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -945,7 +1748,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -953,7 +1756,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -961,7 +1764,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -969,7 +1772,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -977,7 +1780,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -985,7 +1788,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -993,7 +1796,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1001,7 +1804,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1009,7 +1812,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1017,7 +1820,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1025,7 +1828,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1033,7 +1836,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1041,7 +1844,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1049,7 +1852,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1057,7 +1860,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1065,7 +1868,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1073,7 +1876,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1081,4 +1884,677 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>226</v>
+      </c>
+      <c r="B34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>